--- a/Finflux Automation Excels/Client/4503-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-COLLSHEETON09JAN-SAVEON03JAN.xlsx
+++ b/Finflux Automation Excels/Client/4503-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-COLLSHEETON09JAN-SAVEON03JAN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -262,9 +262,6 @@
     <t>Meetingcalendar1</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>waittopageload</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>error2</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1054,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2">
         <v>3000</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>76</v>
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
